--- a/excels/rireki_card.xlsx
+++ b/excels/rireki_card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvcxa24\c$\websites\iisphpapps_senkyo\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47E708-43F3-422B-AC07-134EA94EB5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{983A78E3-6416-4506-9A4B-43CE9568CC07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,20 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="92512"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>議員コード</t>
     <rPh sb="0" eb="2">
@@ -410,10 +419,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>【役職】</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>【教学】</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -421,14 +426,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -511,14 +517,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -533,7 +531,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -652,22 +652,197 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -698,21 +873,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -722,60 +886,16 @@
     <border>
       <left/>
       <right/>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -786,6 +906,241 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -800,17 +1155,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -857,359 +1201,6 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1225,6 +1216,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -1237,7 +1237,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1274,10 +1274,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,64 +1292,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,19 +1361,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,430 +1382,430 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{3A98BF6E-0D98-4505-819A-E5DC3FD5B777}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2128,17 +2128,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
@@ -2170,17 +2159,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
@@ -2191,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2360,13 +2338,13 @@
       <c r="I5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="63"/>
@@ -2398,13 +2376,13 @@
       <c r="G6" s="40"/>
       <c r="H6" s="10"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="65"/>
@@ -2432,13 +2410,13 @@
       <c r="G7" s="40"/>
       <c r="H7" s="10"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="67"/>
@@ -3083,19 +3061,19 @@
       <c r="AF24" s="130"/>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="187"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="189"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="138"/>
       <c r="N25" s="110"/>
       <c r="O25" s="110"/>
       <c r="P25" s="110"/>
@@ -3119,21 +3097,21 @@
       <c r="AF25" s="122"/>
     </row>
     <row r="26" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="142"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145"/>
       <c r="N26" s="110"/>
       <c r="O26" s="80" t="s">
         <v>13</v>
@@ -3159,19 +3137,19 @@
       <c r="AF26" s="125"/>
     </row>
     <row r="27" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="141"/>
       <c r="N27" s="111"/>
       <c r="O27" s="112" t="s">
         <v>29</v>
@@ -3179,11 +3157,11 @@
       <c r="P27" s="112"/>
       <c r="Q27" s="112"/>
       <c r="R27" s="112"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="142"/>
       <c r="X27" s="126"/>
       <c r="Y27" s="127"/>
       <c r="Z27" s="127"/>
@@ -3195,108 +3173,106 @@
       <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="148" t="s">
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="162" t="s">
+      <c r="O28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AA28" s="154" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="156"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="186"/>
     </row>
     <row r="29" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="144"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="151"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="78"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="150"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="150"/>
-      <c r="U29" s="150"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="150"/>
-      <c r="X29" s="150"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="159"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="188"/>
+      <c r="AD29" s="188"/>
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="189"/>
     </row>
     <row r="30" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="144"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="151"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="154"/>
       <c r="N30" s="78"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="150"/>
-      <c r="U30" s="150"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="150"/>
-      <c r="X30" s="150"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="162"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="153"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="159"/>
       <c r="AA30" s="41" t="s">
         <v>33</v>
       </c>
@@ -3304,184 +3280,184 @@
       <c r="AC30" s="42"/>
       <c r="AD30" s="42"/>
       <c r="AE30" s="42"/>
-      <c r="AF30" s="161"/>
+      <c r="AF30" s="158"/>
     </row>
     <row r="31" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="144"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="151"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="154"/>
       <c r="N31" s="78"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="150"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="150"/>
-      <c r="X31" s="150"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="167"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="168"/>
-      <c r="AF31" s="169"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="154"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="164"/>
+      <c r="AB31" s="165"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="166"/>
     </row>
     <row r="32" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="144"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="151"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="154"/>
       <c r="N32" s="78"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="150"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="150"/>
-      <c r="U32" s="150"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="150"/>
-      <c r="X32" s="150"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="162"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="153"/>
+      <c r="V32" s="153"/>
+      <c r="W32" s="153"/>
+      <c r="X32" s="153"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="159"/>
       <c r="AA32" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB32" s="42"/>
       <c r="AC32" s="42"/>
       <c r="AD32" s="42"/>
       <c r="AE32" s="42"/>
-      <c r="AF32" s="161"/>
+      <c r="AF32" s="158"/>
     </row>
     <row r="33" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="144"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="152"/>
-      <c r="U33" s="152"/>
-      <c r="V33" s="152"/>
-      <c r="W33" s="152"/>
-      <c r="X33" s="152"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="165"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="165"/>
-      <c r="AE33" s="165"/>
-      <c r="AF33" s="166"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="161"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="163"/>
     </row>
     <row r="34" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="144"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="170" t="s">
+      <c r="A34" s="147"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="171"/>
-      <c r="P34" s="171"/>
-      <c r="Q34" s="171"/>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
-      <c r="T34" s="171"/>
-      <c r="U34" s="171"/>
-      <c r="V34" s="171"/>
-      <c r="W34" s="171"/>
-      <c r="X34" s="171"/>
-      <c r="Y34" s="171"/>
-      <c r="Z34" s="171"/>
-      <c r="AA34" s="171"/>
-      <c r="AB34" s="171"/>
-      <c r="AC34" s="171"/>
-      <c r="AD34" s="171"/>
-      <c r="AE34" s="171"/>
-      <c r="AF34" s="172"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="168"/>
+      <c r="V34" s="168"/>
+      <c r="W34" s="168"/>
+      <c r="X34" s="168"/>
+      <c r="Y34" s="168"/>
+      <c r="Z34" s="168"/>
+      <c r="AA34" s="168"/>
+      <c r="AB34" s="168"/>
+      <c r="AC34" s="168"/>
+      <c r="AD34" s="168"/>
+      <c r="AE34" s="168"/>
+      <c r="AF34" s="169"/>
     </row>
     <row r="35" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="145"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
-      <c r="S35" s="174"/>
-      <c r="T35" s="174"/>
-      <c r="U35" s="174"/>
-      <c r="V35" s="174"/>
-      <c r="W35" s="174"/>
-      <c r="X35" s="174"/>
-      <c r="Y35" s="174"/>
-      <c r="Z35" s="174"/>
-      <c r="AA35" s="174"/>
-      <c r="AB35" s="174"/>
-      <c r="AC35" s="174"/>
-      <c r="AD35" s="174"/>
-      <c r="AE35" s="174"/>
-      <c r="AF35" s="175"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="171"/>
+      <c r="T35" s="171"/>
+      <c r="U35" s="171"/>
+      <c r="V35" s="171"/>
+      <c r="W35" s="171"/>
+      <c r="X35" s="171"/>
+      <c r="Y35" s="171"/>
+      <c r="Z35" s="171"/>
+      <c r="AA35" s="171"/>
+      <c r="AB35" s="171"/>
+      <c r="AC35" s="171"/>
+      <c r="AD35" s="171"/>
+      <c r="AE35" s="171"/>
+      <c r="AF35" s="172"/>
     </row>
     <row r="36" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="151" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="134" t="s">
@@ -3534,275 +3510,275 @@
     </row>
     <row r="37" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="78"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="176"/>
-      <c r="U37" s="176"/>
-      <c r="V37" s="176"/>
-      <c r="W37" s="176"/>
-      <c r="X37" s="176"/>
-      <c r="Y37" s="176"/>
-      <c r="Z37" s="176"/>
-      <c r="AA37" s="176"/>
-      <c r="AB37" s="176"/>
-      <c r="AC37" s="176"/>
-      <c r="AD37" s="176"/>
-      <c r="AE37" s="160"/>
-      <c r="AF37" s="177"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="173"/>
+      <c r="W37" s="173"/>
+      <c r="X37" s="173"/>
+      <c r="Y37" s="173"/>
+      <c r="Z37" s="173"/>
+      <c r="AA37" s="173"/>
+      <c r="AB37" s="173"/>
+      <c r="AC37" s="173"/>
+      <c r="AD37" s="173"/>
+      <c r="AE37" s="157"/>
+      <c r="AF37" s="174"/>
     </row>
     <row r="38" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="78"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="160"/>
-      <c r="N38" s="160"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
-      <c r="S38" s="176"/>
-      <c r="T38" s="176"/>
-      <c r="U38" s="176"/>
-      <c r="V38" s="176"/>
-      <c r="W38" s="176"/>
-      <c r="X38" s="176"/>
-      <c r="Y38" s="176"/>
-      <c r="Z38" s="176"/>
-      <c r="AA38" s="176"/>
-      <c r="AB38" s="176"/>
-      <c r="AC38" s="176"/>
-      <c r="AD38" s="176"/>
-      <c r="AE38" s="160"/>
-      <c r="AF38" s="177"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="173"/>
+      <c r="W38" s="173"/>
+      <c r="X38" s="173"/>
+      <c r="Y38" s="173"/>
+      <c r="Z38" s="173"/>
+      <c r="AA38" s="173"/>
+      <c r="AB38" s="173"/>
+      <c r="AC38" s="173"/>
+      <c r="AD38" s="173"/>
+      <c r="AE38" s="157"/>
+      <c r="AF38" s="174"/>
     </row>
     <row r="39" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="78"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="176"/>
-      <c r="S39" s="176"/>
-      <c r="T39" s="176"/>
-      <c r="U39" s="176"/>
-      <c r="V39" s="176"/>
-      <c r="W39" s="176"/>
-      <c r="X39" s="176"/>
-      <c r="Y39" s="176"/>
-      <c r="Z39" s="176"/>
-      <c r="AA39" s="176"/>
-      <c r="AB39" s="176"/>
-      <c r="AC39" s="176"/>
-      <c r="AD39" s="176"/>
-      <c r="AE39" s="160"/>
-      <c r="AF39" s="177"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="173"/>
+      <c r="W39" s="173"/>
+      <c r="X39" s="173"/>
+      <c r="Y39" s="173"/>
+      <c r="Z39" s="173"/>
+      <c r="AA39" s="173"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="173"/>
+      <c r="AD39" s="173"/>
+      <c r="AE39" s="157"/>
+      <c r="AF39" s="174"/>
     </row>
     <row r="40" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="78"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="160"/>
-      <c r="N40" s="160"/>
-      <c r="O40" s="176"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="176"/>
-      <c r="T40" s="176"/>
-      <c r="U40" s="176"/>
-      <c r="V40" s="176"/>
-      <c r="W40" s="176"/>
-      <c r="X40" s="176"/>
-      <c r="Y40" s="176"/>
-      <c r="Z40" s="176"/>
-      <c r="AA40" s="176"/>
-      <c r="AB40" s="176"/>
-      <c r="AC40" s="176"/>
-      <c r="AD40" s="176"/>
-      <c r="AE40" s="160"/>
-      <c r="AF40" s="177"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="173"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
+      <c r="X40" s="173"/>
+      <c r="Y40" s="173"/>
+      <c r="Z40" s="173"/>
+      <c r="AA40" s="173"/>
+      <c r="AB40" s="173"/>
+      <c r="AC40" s="173"/>
+      <c r="AD40" s="173"/>
+      <c r="AE40" s="157"/>
+      <c r="AF40" s="174"/>
     </row>
     <row r="41" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="78"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="160"/>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="176"/>
-      <c r="U41" s="176"/>
-      <c r="V41" s="176"/>
-      <c r="W41" s="176"/>
-      <c r="X41" s="176"/>
-      <c r="Y41" s="176"/>
-      <c r="Z41" s="176"/>
-      <c r="AA41" s="176"/>
-      <c r="AB41" s="176"/>
-      <c r="AC41" s="176"/>
-      <c r="AD41" s="176"/>
-      <c r="AE41" s="160"/>
-      <c r="AF41" s="177"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="173"/>
+      <c r="Y41" s="173"/>
+      <c r="Z41" s="173"/>
+      <c r="AA41" s="173"/>
+      <c r="AB41" s="173"/>
+      <c r="AC41" s="173"/>
+      <c r="AD41" s="173"/>
+      <c r="AE41" s="157"/>
+      <c r="AF41" s="174"/>
     </row>
     <row r="42" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="78"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="160"/>
-      <c r="N42" s="160"/>
-      <c r="O42" s="176"/>
-      <c r="P42" s="176"/>
-      <c r="Q42" s="176"/>
-      <c r="R42" s="176"/>
-      <c r="S42" s="176"/>
-      <c r="T42" s="176"/>
-      <c r="U42" s="176"/>
-      <c r="V42" s="176"/>
-      <c r="W42" s="176"/>
-      <c r="X42" s="176"/>
-      <c r="Y42" s="176"/>
-      <c r="Z42" s="176"/>
-      <c r="AA42" s="176"/>
-      <c r="AB42" s="176"/>
-      <c r="AC42" s="176"/>
-      <c r="AD42" s="176"/>
-      <c r="AE42" s="160"/>
-      <c r="AF42" s="177"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="173"/>
+      <c r="S42" s="173"/>
+      <c r="T42" s="173"/>
+      <c r="U42" s="173"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
+      <c r="X42" s="173"/>
+      <c r="Y42" s="173"/>
+      <c r="Z42" s="173"/>
+      <c r="AA42" s="173"/>
+      <c r="AB42" s="173"/>
+      <c r="AC42" s="173"/>
+      <c r="AD42" s="173"/>
+      <c r="AE42" s="157"/>
+      <c r="AF42" s="174"/>
     </row>
     <row r="43" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="78"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="160"/>
-      <c r="N43" s="160"/>
-      <c r="O43" s="176"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="176"/>
-      <c r="T43" s="176"/>
-      <c r="U43" s="176"/>
-      <c r="V43" s="176"/>
-      <c r="W43" s="176"/>
-      <c r="X43" s="176"/>
-      <c r="Y43" s="176"/>
-      <c r="Z43" s="176"/>
-      <c r="AA43" s="176"/>
-      <c r="AB43" s="176"/>
-      <c r="AC43" s="176"/>
-      <c r="AD43" s="176"/>
-      <c r="AE43" s="160"/>
-      <c r="AF43" s="177"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="173"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="173"/>
+      <c r="AA43" s="173"/>
+      <c r="AB43" s="173"/>
+      <c r="AC43" s="173"/>
+      <c r="AD43" s="173"/>
+      <c r="AE43" s="157"/>
+      <c r="AF43" s="174"/>
     </row>
     <row r="44" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="149"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="178"/>
-      <c r="N44" s="178"/>
-      <c r="O44" s="185"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="185"/>
-      <c r="S44" s="185"/>
-      <c r="T44" s="185"/>
-      <c r="U44" s="185"/>
-      <c r="V44" s="185"/>
-      <c r="W44" s="185"/>
-      <c r="X44" s="185"/>
-      <c r="Y44" s="185"/>
-      <c r="Z44" s="185"/>
-      <c r="AA44" s="185"/>
-      <c r="AB44" s="185"/>
-      <c r="AC44" s="185"/>
-      <c r="AD44" s="185"/>
-      <c r="AE44" s="178"/>
-      <c r="AF44" s="186"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="175"/>
+      <c r="N44" s="175"/>
+      <c r="O44" s="176"/>
+      <c r="P44" s="176"/>
+      <c r="Q44" s="176"/>
+      <c r="R44" s="176"/>
+      <c r="S44" s="176"/>
+      <c r="T44" s="176"/>
+      <c r="U44" s="176"/>
+      <c r="V44" s="176"/>
+      <c r="W44" s="176"/>
+      <c r="X44" s="176"/>
+      <c r="Y44" s="176"/>
+      <c r="Z44" s="176"/>
+      <c r="AA44" s="176"/>
+      <c r="AB44" s="176"/>
+      <c r="AC44" s="176"/>
+      <c r="AD44" s="176"/>
+      <c r="AE44" s="175"/>
+      <c r="AF44" s="177"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
@@ -3816,31 +3792,39 @@
       <c r="AE45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="Y41:AD41"/>
+  <mergeCells count="184">
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="S42:X42"/>
+    <mergeCell ref="Y42:AD42"/>
     <mergeCell ref="J5:P6"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AA28:AF29"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="Y43:AD43"/>
+    <mergeCell ref="Y40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AD41"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="S44:X44"/>
     <mergeCell ref="Y44:AD44"/>
     <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="H44:L44"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:X43"/>
-    <mergeCell ref="Y43:AD43"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:X42"/>
-    <mergeCell ref="Y42:AD42"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M42:N42"/>
     <mergeCell ref="Y38:AD38"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M38:N38"/>
@@ -3849,20 +3833,18 @@
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="S39:X39"/>
     <mergeCell ref="Y39:AD39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="O40:R40"/>
     <mergeCell ref="S40:X40"/>
-    <mergeCell ref="Y40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y37:AD37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="F36:G36"/>
@@ -3872,24 +3854,13 @@
     <mergeCell ref="H38:L38"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="O29:Y29"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="N35:AF35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="Y37:AD37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="AE37:AF37"/>
     <mergeCell ref="AA30:AF30"/>
     <mergeCell ref="O36:R36"/>
     <mergeCell ref="S36:X36"/>
@@ -3899,13 +3870,27 @@
     <mergeCell ref="AA33:AF33"/>
     <mergeCell ref="AA31:AF31"/>
     <mergeCell ref="O32:Y32"/>
-    <mergeCell ref="B31:M31"/>
     <mergeCell ref="O31:Y31"/>
-    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="O29:Y29"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B30:M30"/>
     <mergeCell ref="N34:AF34"/>
     <mergeCell ref="B35:M35"/>
-    <mergeCell ref="N35:AF35"/>
-    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="N28:N33"/>
+    <mergeCell ref="O28:Y28"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="O33:Y33"/>
+    <mergeCell ref="O30:Y30"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B34:M34"/>
     <mergeCell ref="AE36:AF36"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="Q25:R25"/>
@@ -3916,25 +3901,6 @@
     <mergeCell ref="O27:R27"/>
     <mergeCell ref="S27:W27"/>
     <mergeCell ref="A26:M26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="N28:N33"/>
-    <mergeCell ref="O28:Y28"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="O33:Y33"/>
-    <mergeCell ref="O30:Y30"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="W17:W23"/>
-    <mergeCell ref="X17:AF17"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:V22"/>
     <mergeCell ref="X22:AF22"/>
     <mergeCell ref="D23:P23"/>
     <mergeCell ref="Q23:V23"/>
@@ -3944,12 +3910,23 @@
     <mergeCell ref="S24:W24"/>
     <mergeCell ref="X24:AF24"/>
     <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="Q15:V16"/>
-    <mergeCell ref="J13:V13"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:V19"/>
+    <mergeCell ref="W17:W23"/>
+    <mergeCell ref="X17:AF17"/>
+    <mergeCell ref="X18:AF18"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="X20:AF20"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X21:AF21"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="X19:AF19"/>
     <mergeCell ref="A20:A23"/>
@@ -3960,14 +3937,18 @@
     <mergeCell ref="Y15:AF15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="X20:AF20"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X21:AF21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:V19"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="S5:V7"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="Y6:AF6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="Q15:V16"/>
+    <mergeCell ref="J13:V13"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="L1:AF1"/>
     <mergeCell ref="J14:V14"/>
     <mergeCell ref="Y14:AF14"/>
     <mergeCell ref="W5:W14"/>
@@ -3976,10 +3957,16 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="J12:V12"/>
     <mergeCell ref="Y7:AF7"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="S5:V7"/>
-    <mergeCell ref="Y5:AF5"/>
-    <mergeCell ref="Y6:AF6"/>
+    <mergeCell ref="B5:G13"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:V8"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="Y9:AF9"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Y8:AF8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="Q5:R7"/>
@@ -3990,18 +3977,6 @@
     <mergeCell ref="J4:R4"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="W4:AF4"/>
-    <mergeCell ref="B5:G13"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:V8"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="Y9:AF9"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Y8:AF8"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="L1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4014,7 +3989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4028,7 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
